--- a/pred_ohlcv/54_21/2019-10-27 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 WAX ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>68756.0833</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>221802.79518945</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>216554.12458945</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>216554.12458945</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>216259.86658945</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>216431.0994661601</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>314710.7932661601</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1374471.01612916</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1569942.71086616</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1971711.76281601</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3494691.69425419</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3681975.99205419</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3652421.96625419</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3657801.16625419</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3665289.21475419</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3623254.41025419</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3623553.90415419</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3692337.68575419</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3691985.83375419</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 WAX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 WAX ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>37859.80909999999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>42408.83619999999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>46106.08329999999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>68756.0833</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>83860.04290000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>154799.8063</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>224828.09438945</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>221211.53038945</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>221105.78838945</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>216517.41228945</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>216431.0994661601</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>216431.0994661601</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1374471.01612916</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1569942.71086616</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1971711.76281601</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3631715.72155419</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3603763.20755419</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3701363.31495419</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3545812.88115419</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3435883.87375419</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3399329.32845419</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3293181.40015419</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3453006.02945419</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3446668.67385419</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3494691.69425419</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3681975.99205419</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3652421.96625419</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3657801.16625419</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3665289.21475419</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
